--- a/PASS/approval/BALANCE KERALA PASS.xlsx
+++ b/PASS/approval/BALANCE KERALA PASS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>TNVN0054</t>
   </si>
@@ -30,9 +30,6 @@
     <t>TN03509808</t>
   </si>
   <si>
-    <t>32 MT</t>
-  </si>
-  <si>
     <t>31-08-2025</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
   </si>
   <si>
     <t>TN05009728</t>
-  </si>
-  <si>
-    <t>9 MT</t>
   </si>
   <si>
     <t>19-10-2025</t>
@@ -531,440 +525,524 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="B3:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H3">
+        <f>F3</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f>F4+H3</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H5">
+        <f t="shared" ref="H5:H23" si="0">F5+H4</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F7">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45725</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1">
-        <v>45725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F9">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E10" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F10">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F11">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F13">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F14">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E15" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F15">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E16" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F16">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E17" t="s">
         <v>41</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F17">
+        <v>32</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45848</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18">
+        <v>32</v>
+      </c>
+      <c r="G18" s="1">
         <v>45848</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <v>32</v>
+      </c>
+      <c r="G19" s="1">
         <v>45848</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
         <v>46</v>
       </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1">
-        <v>45848</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D20" t="s">
         <v>47</v>
       </c>
-      <c r="C18" t="s">
+      <c r="E20" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
+      <c r="F20">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1">
+        <v>46001</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
         <v>49</v>
       </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1">
         <v>46001</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
         <v>51</v>
       </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>46001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D22" t="s">
         <v>52</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E22" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F22">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E23" t="s">
         <v>57</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F23">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
         <v>58</v>
       </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" t="s">
-        <v>60</v>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
